--- a/evaluation/gdpa_1.xlsx
+++ b/evaluation/gdpa_1.xlsx
@@ -486,7 +486,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -515,7 +515,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
         <v>50</v>
@@ -524,7 +524,7 @@
         <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -544,7 +544,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -553,7 +553,7 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -567,7 +567,7 @@
         <v>0.5631578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
@@ -582,7 +582,7 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -596,13 +596,13 @@
         <v>0.5842105263157895</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
         <v>50</v>
@@ -625,13 +625,13 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -640,7 +640,7 @@
         <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -654,13 +654,13 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -669,7 +669,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -683,13 +683,13 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
@@ -698,7 +698,7 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -712,13 +712,13 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -741,10 +741,10 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="n">
         <v>40</v>
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -770,22 +770,22 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -799,25 +799,25 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -828,28 +828,28 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -857,25 +857,25 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
         <v>47</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="n">
         <v>47</v>
@@ -886,28 +886,28 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -915,28 +915,28 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
         <v>45</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="n">
         <v>44</v>
       </c>
-      <c r="D17" t="n">
-        <v>32</v>
-      </c>
-      <c r="E17" t="n">
-        <v>47</v>
-      </c>
-      <c r="F17" t="n">
-        <v>47</v>
-      </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -944,28 +944,28 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I18" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -973,28 +973,28 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -1002,28 +1002,28 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="n">
         <v>31</v>
       </c>
-      <c r="C20" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21</v>
-      </c>
-      <c r="E20" t="n">
-        <v>36</v>
-      </c>
-      <c r="F20" t="n">
-        <v>36</v>
-      </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -1034,25 +1034,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
